--- a/Planeacion del Trabajo/Giroplas_Plan_de_licitación.xlsx
+++ b/Planeacion del Trabajo/Giroplas_Plan_de_licitación.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
   <si>
     <t/>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>PLAN DE LICITACIÓN</t>
+  </si>
+  <si>
+    <t>url para la ubicación en el repositorio: Giroplas/Planeacion del Trabajo/Giroplas_Plan_de_licitación.xlsx</t>
   </si>
 </sst>
 </file>
@@ -304,9 +307,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ &quot;S/.&quot;* #,##0.00_ ;_ &quot;S/.&quot;* \-#,##0.00_ ;_ &quot;S/.&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -428,6 +431,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -798,6 +802,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -806,6 +852,42 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,84 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="20" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1291,10 +1295,10 @@
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
     </row>
@@ -1333,10 +1337,10 @@
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
     </row>
@@ -1375,12 +1379,12 @@
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
@@ -1555,7 +1559,7 @@
   <dimension ref="A1:Q256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:P6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1582,10 +1586,10 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="59"/>
+      <c r="C1" s="65"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,8 +1612,8 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
@@ -1625,8 +1629,8 @@
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -1641,25 +1645,25 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
@@ -1668,7 +1672,9 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -1687,20 +1693,20 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1727,21 +1733,21 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="1"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="78">
+      <c r="L8" s="70"/>
+      <c r="M8" s="72">
         <v>42121</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
@@ -1769,21 +1775,21 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="1"/>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="77" t="s">
+      <c r="L10" s="71"/>
+      <c r="M10" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
@@ -1804,604 +1810,604 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" s="15" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="60" t="s">
+      <c r="N12" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="60" t="s">
+      <c r="O12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="60" t="s">
+      <c r="P12" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="60" t="s">
+      <c r="Q12" s="68" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
     </row>
     <row r="14" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="68" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="53">
         <v>1</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="54">
         <v>1000</v>
       </c>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="55">
         <v>42121</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O14" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="66" t="s">
+      <c r="P14" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="72"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="73" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="53">
         <v>1</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="54">
         <v>200</v>
       </c>
-      <c r="M15" s="66" t="s">
+      <c r="M15" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="55">
         <v>42121</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="P15" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="66"/>
+      <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="1:17" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="68" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="J16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="53">
         <v>1</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="54">
         <v>1400</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="55">
         <v>42121</v>
       </c>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="72" t="s">
+      <c r="Q16" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="68" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="53">
         <v>1</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="54">
         <v>4608</v>
       </c>
-      <c r="M17" s="66" t="s">
+      <c r="M17" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="55">
         <v>42185</v>
       </c>
-      <c r="O17" s="66" t="s">
+      <c r="O17" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="66" t="s">
+      <c r="P17" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="72" t="s">
+      <c r="Q17" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="68" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="53">
         <v>1</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="54">
         <v>5347</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="55">
         <v>42121</v>
       </c>
-      <c r="O18" s="66" t="s">
+      <c r="O18" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="53">
         <v>1</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="54">
         <v>7984</v>
       </c>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="55">
         <v>42170</v>
       </c>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="P19" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="72" t="s">
+      <c r="Q19" s="56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="59.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="68" t="s">
+      <c r="H20" s="50"/>
+      <c r="I20" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="53">
         <v>1</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="54">
         <v>13184</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N20" s="71">
+      <c r="N20" s="55">
         <v>42149</v>
       </c>
-      <c r="O20" s="66" t="s">
+      <c r="O20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="66" t="s">
+      <c r="P20" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="72"/>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="68" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="53">
         <v>1</v>
       </c>
-      <c r="L21" s="70">
+      <c r="L21" s="54">
         <v>4000</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="M21" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="71">
+      <c r="N21" s="55">
         <v>42121</v>
       </c>
-      <c r="O21" s="66" t="s">
+      <c r="O21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="P21" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="72"/>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="72"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66" t="s">
+      <c r="E24" s="50"/>
+      <c r="F24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="72"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66" t="s">
+      <c r="E25" s="50"/>
+      <c r="F25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="72"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66" t="s">
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="72"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66" t="s">
+      <c r="E27" s="50"/>
+      <c r="F27" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="72"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -2470,10 +2476,10 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="80"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="24">
         <v>8</v>
       </c>
@@ -2493,11 +2499,11 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="79" t="s">
+      <c r="J32" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="82">
+      <c r="K32" s="75"/>
+      <c r="L32" s="61">
         <f>-(L14+L15+L16+L17+L18+L19+L20+L21)</f>
         <v>-37723</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="76"/>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="60" t="s">
         <v>81</v>
       </c>
       <c r="M33"/>
@@ -6697,15 +6703,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
@@ -6722,6 +6719,15 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
